--- a/日経社説ー春秋/「偉大な米国」に程遠い入国制限.xlsx
+++ b/日経社説ー春秋/「偉大な米国」に程遠い入国制限.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>程遠い</t>
   </si>
@@ -237,18 +232,138 @@
   </si>
   <si>
     <t>あとで言い逃れ山違いなどがおきないように、予め念を押す。釘を打つ。</t>
+  </si>
+  <si>
+    <t>自由や平等の旗の下に、様々な出身を持つ人々が結束する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これが米国の強さと魅力のはずだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この理念を自ら破壊する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな不安が拭えない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テロ対策を名目に、トランプ米大統領が打ち出した難民や一部の国を対象とする入国制限措置のことだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拡散するイスラム過激派のテロへの対処は国際社会の共通課題だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただし、イスラム教徒や中東の人々を狙い撃ちにしたともとれるトランプ政権の対応は、中東の人々の怒りを呼び、テロを助長することになりかねない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一方的措置は逆効果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランプ氏が入国制限措置を定めた大統領令に署名した結果、全米の空港で入国でkなかったり、中東などで米国ゆきの飛行機に乗れなかったりする人が相次いだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制限措置に講義するデモも各地に広がっている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべての難民の受け入れを１２０日間止める。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>イラクやイランなど、中東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・アフリカの７カ国についてはすべての人の入国を認めたい。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イラクのように米国が国交を持つ国もある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その全国民を閉め出し、入国査証を持つ旅行者まで空港で足止めされたのは不当と言わざるをえない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過激派組織「イスラム国」（IS)には、入国制限の対象になっていない国の出身者も多数、加わっている。イスラム教の過激思想は国境を越えて広がる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定の国民の入国を拒んでも、テロの抑止には限界がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標的になった国々は反発している。反米感情の高まりはテロリストの予備軍を増やし、結果的にテロ組織を利するだけだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国が一方的に扉を閉じるこてゃ、テロや難民の問題の解決にはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中東やアフリカの国々の安定を後押しし、そこの人々の生活を向上させる平和の努力や経済開発を進めることが重要だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国内で、爆弾テロや銃乱射といった事件が相次いでいるのは事実だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨年６月のフロリダ州オーランドでの乱射事件で、史上最悪の５０人が死亡した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>９月にニューヨーク市内で起きた爆発事件では、約３０人が負傷している。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前代未聞の入国制限にトランプ大統領を走らせるのは、米国内の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,15 +387,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,7 +487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,29 +664,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="81.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -582,8 +696,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="27">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -593,8 +707,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -604,8 +718,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -615,8 +729,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -626,8 +740,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="27">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -637,8 +751,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="40.5">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -648,8 +762,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="40.5">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -659,16 +773,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -678,8 +792,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="27">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -689,8 +803,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -700,8 +814,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -711,8 +825,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -722,8 +836,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" ht="27">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -733,8 +847,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
@@ -744,8 +858,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -755,8 +869,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -766,8 +880,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="27">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -777,8 +891,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" ht="27">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -788,8 +902,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" ht="27">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -799,8 +913,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -810,8 +924,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -821,8 +935,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" ht="27">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -832,7 +946,124 @@
         <v>70</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="27">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="27">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="27">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="27">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="27">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>